--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100075.474410265</v>
+        <v>18224550.14294398</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100075.474410265</v>
+        <v>18224550.14294398</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>289652.8395615497</v>
+        <v>35135575.69944052</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>289652.8395615497</v>
+        <v>35135575.69944052</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1488466370.198283</v>
+        <v>16625942.45983179</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18114.0695078015</v>
+        <v>448224.3511054872</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35429.40340722092</v>
+        <v>768384.6018951217</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52709.11063125889</v>
+        <v>1088544.852684755</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>70090.98870804576</v>
+        <v>1407838.409796089</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87479.84450728791</v>
+        <v>1727379.593672653</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>104862.9669396789</v>
+        <v>2046920.777549216</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>122250.7309929664</v>
+        <v>2366461.961425777</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>139634.945171312</v>
+        <v>2686003.145302338</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>157020.9342871286</v>
+        <v>3005544.329178924</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>174408.698340416</v>
+        <v>3325085.513055503</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191793.0693508687</v>
+        <v>3644626.696932084</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209178.9016345781</v>
+        <v>3964167.880808664</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>226565.0475825017</v>
+        <v>4283709.064685347</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>244195.2611596756</v>
+        <v>4547946.189437881</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>261930.7951655381</v>
+        <v>4827757.239911759</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>51.0000000000058</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>51.00000000001463</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,25 +27144,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
